--- a/project.xlsx
+++ b/project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kydos/Work/Academia/Lectures/2018/2018-ESIEE-DRIO-5202B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F6248-23D3-1845-AB15-2FA9C1A9905F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD910B-862D-6D42-9286-6E1142C0B989}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="2060" windowWidth="21280" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="480" windowWidth="21280" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Project Name</t>
   </si>
@@ -85,13 +86,52 @@
   </si>
   <si>
     <t>A Minimal HTTP server</t>
+  </si>
+  <si>
+    <t>TicTac Toe</t>
+  </si>
+  <si>
+    <t>salahedine.abdelkrim@edu.esiee.fr</t>
+  </si>
+  <si>
+    <t>jounaid.djoudi@edu.esiee.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicolas.vo@edu.esiee.fr, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paul.sifessalam@edu.esiee.fr,, clement, Michael, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan, Victor, </t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Jaques</t>
+  </si>
+  <si>
+    <t>ChatBot</t>
+  </si>
+  <si>
+    <t>Berrurier Clement</t>
+  </si>
+  <si>
+    <t>Adrien Tetar</t>
+  </si>
+  <si>
+    <t>Morgan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +157,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,13 +219,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,9 +245,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,18 +263,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,29 +581,29 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="0.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.1640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="0.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="6" max="6" width="55" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -541,112 +612,172 @@
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F8" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
+      <c r="F12" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="24" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{92A98296-3201-D745-8653-4C2FBEA0652B}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{67F48C10-9702-7D48-9942-4F741FBEC558}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{A6351A3D-DC90-8145-B136-B1D1E5B75F02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B49707-F404-7A4E-928B-DC3EE814FDA9}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>